--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Claim Item Detail " r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Claim Item Detai" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -233,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -309,50 +312,44 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -374,28 +371,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-claim-item-detail-classification.xlsx
+++ b/ValueSet-claim-item-detail-classification.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/claim-item-detail-classification</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/claim-item-detail-classification</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/claim-item-detail-classification</t>
+    <t>http://linuxforhealth.org/fhir/cdm/CodeSystem/claim-item-detail-classification</t>
   </si>
 </sst>
 </file>
